--- a/Journal_de_travail_VMW.xlsx
+++ b/Journal_de_travail_VMW.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pt63nch\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pt63nch\Documents\GitHub\JoQuiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1329771-208B-46DA-A9F7-5F55CC59F97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE2059D-EB1A-46E9-A5CF-EE0B56F2BD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C76477CB-AF63-4402-801C-627B6AD4564C}"/>
+    <workbookView xWindow="-14340" yWindow="2715" windowWidth="21600" windowHeight="11385" xr2:uid="{C76477CB-AF63-4402-801C-627B6AD4564C}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -63,12 +63,6 @@
     <t>heure de début2</t>
   </si>
   <si>
-    <t>Problème rencontré</t>
-  </si>
-  <si>
-    <t>Erreur dans le cahier des charge signalée a monsieur Savari</t>
-  </si>
-  <si>
     <t>Création des documents</t>
   </si>
   <si>
@@ -84,10 +78,46 @@
     <t>Autre</t>
   </si>
   <si>
-    <t>Discution a propos d'un changement d'horaire avec monsieur altieri</t>
-  </si>
-  <si>
     <t>Rédaction du journal de travail</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Autre</t>
+  </si>
+  <si>
+    <t>Apprentissage du language Kotlin</t>
+  </si>
+  <si>
+    <t>Problème rencontré / remarque</t>
+  </si>
+  <si>
+    <t>Rempli dossier de projet</t>
+  </si>
+  <si>
+    <t>Création de la maquette</t>
+  </si>
+  <si>
+    <t>Erreur dans le cahier des charge signalée a monsieur Savary</t>
+  </si>
+  <si>
+    <t>Rendez vous avec monsieur Savari</t>
+  </si>
+  <si>
+    <t>Planification du projet</t>
+  </si>
+  <si>
+    <t>Choix de strategie de test</t>
+  </si>
+  <si>
+    <t>Correction des objectifs</t>
+  </si>
+  <si>
+    <t>Discution a propos d'administratif avec monsieur Altieri</t>
+  </si>
+  <si>
+    <t>Discution a propos d'un changement d'horaire avec monsieur Altieri</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -153,9 +183,6 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -180,6 +207,9 @@
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -194,16 +224,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E93C6E1C-B0BD-4EF6-B435-0E3DCB4B182F}" name="Tableau1" displayName="Tableau1" ref="A1:G26" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E93C6E1C-B0BD-4EF6-B435-0E3DCB4B182F}" name="Tableau1" displayName="Tableau1" ref="A1:G26" totalsRowShown="0" dataDxfId="7">
   <autoFilter ref="A1:G26" xr:uid="{E93C6E1C-B0BD-4EF6-B435-0E3DCB4B182F}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F03BD8AE-DCAD-435E-AC03-584E15FC8493}" name="Date" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{76FA6963-7F8C-4895-B8BA-445A4BB2DC8E}" name="Type de travail" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{C9139E1C-787D-4C5A-8750-6FE082AAC00C}" name="Description" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{B117813D-6F0A-4286-980F-99C6DC102ADB}" name="Problème rencontré" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{C96D9B9A-7860-4266-842C-6C83AAF6F623}" name="heure de début2" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{8CEFA920-E3F0-445D-B615-5599E28C54E8}" name="Heure de fin" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{6318CDEB-0B8E-473F-94F7-20D613FF13AB}" name="Intervenant" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{F03BD8AE-DCAD-435E-AC03-584E15FC8493}" name="Date" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{76FA6963-7F8C-4895-B8BA-445A4BB2DC8E}" name="Type de travail" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{C9139E1C-787D-4C5A-8750-6FE082AAC00C}" name="Description" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{B117813D-6F0A-4286-980F-99C6DC102ADB}" name="Problème rencontré / remarque" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{C96D9B9A-7860-4266-842C-6C83AAF6F623}" name="heure de début2" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{8CEFA920-E3F0-445D-B615-5599E28C54E8}" name="Heure de fin" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{6318CDEB-0B8E-473F-94F7-20D613FF13AB}" name="Intervenant" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -509,7 +539,7 @@
   <dimension ref="A1:G115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +563,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
@@ -553,10 +583,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="E2" s="7">
         <v>0.35416666666666669</v>
@@ -566,7 +596,7 @@
       </c>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>45323</v>
       </c>
@@ -577,7 +607,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E3" s="7">
         <v>0.40972222222222227</v>
@@ -595,10 +625,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" s="7">
         <v>0.5625</v>
@@ -616,7 +646,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="7">
@@ -632,10 +662,10 @@
         <v>45324</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="7">
@@ -654,7 +684,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="7">
@@ -673,7 +703,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="7">
@@ -685,75 +715,159 @@
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="3">
+        <v>45328</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="E9" s="7">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="3">
+        <v>45330</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="E10" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.39930555555555558</v>
+      </c>
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="A11" s="3">
+        <v>45330</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="3">
+        <v>45330</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="E12" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.62847222222222221</v>
+      </c>
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="A13" s="3">
+        <v>45330</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.67013888888888884</v>
+      </c>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="3">
+        <v>45330</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="E14" s="7">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>45331</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="E15" s="7">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="E16" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.47222222222222227</v>
+      </c>
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
